--- a/TRACKER.xlsx
+++ b/TRACKER.xlsx
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -4037,10 +4037,456 @@
       </c>
       <c r="O47" s="15" t="n"/>
     </row>
-    <row r="50" ht="15" customHeight="1" s="12"/>
-    <row r="51" ht="15" customHeight="1" s="12"/>
-    <row r="52" ht="15" customHeight="1" s="12"/>
-    <row r="53" ht="15" customHeight="1" s="12"/>
+    <row r="48">
+      <c r="A48" s="15" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="15" t="inlineStr">
+        <is>
+          <t>Federico Martinucci</t>
+        </is>
+      </c>
+      <c r="C48" s="15" t="inlineStr">
+        <is>
+          <t>Genial Business</t>
+        </is>
+      </c>
+      <c r="D48" s="15" t="inlineStr">
+        <is>
+          <t>Formazione/HR</t>
+        </is>
+      </c>
+      <c r="E48" s="15" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="F48" s="15" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G48" s="15" t="inlineStr">
+        <is>
+          <t>Evento/Network</t>
+        </is>
+      </c>
+      <c r="H48" s="15" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
+      <c r="I48" s="15" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J48" s="15" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
+      <c r="K48" s="15" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L48" s="15" t="inlineStr">
+        <is>
+          <t>Network generico</t>
+        </is>
+      </c>
+      <c r="M48" s="15" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N48" s="15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O48" s="15" t="inlineStr">
+        <is>
+          <t>Vende formazione gestione personale per PMI. "Mi risuona mucho" = probabile pitch commerciale. Sinergia debole. Bassa priorità. Giulia Martini è il contatto reale (founder). Federico era intro.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="15" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="15" t="inlineStr">
+        <is>
+          <t>Silvia Morales</t>
+        </is>
+      </c>
+      <c r="C49" s="15" t="inlineStr">
+        <is>
+          <t>söt dröm</t>
+        </is>
+      </c>
+      <c r="D49" s="15" t="inlineStr">
+        <is>
+          <t>Fashion</t>
+        </is>
+      </c>
+      <c r="E49" s="15" t="inlineStr">
+        <is>
+          <t>Da qualificare</t>
+        </is>
+      </c>
+      <c r="F49" s="15" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G49" s="15" t="inlineStr">
+        <is>
+          <t>Evento/Network</t>
+        </is>
+      </c>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
+      <c r="I49" s="15" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J49" s="15" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
+      <c r="K49" s="15" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L49" s="15" t="inlineStr">
+        <is>
+          <t>🟡 Da qualificare</t>
+        </is>
+      </c>
+      <c r="M49" s="15" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N49" s="15" t="inlineStr">
+        <is>
+          <t>⚠️ Da verificare</t>
+        </is>
+      </c>
+      <c r="O49" s="15" t="inlineStr">
+        <is>
+          <t>Fashion brand BCN, fondata 2018. Vuole scalare. Verificare dimensione (micro vs scaling). Utile per validazione solo se ha problemi ops reali.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="15" customHeight="1" s="12">
+      <c r="A50" s="15" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="15" t="inlineStr">
+        <is>
+          <t>Sonia Domenech Anglada</t>
+        </is>
+      </c>
+      <c r="C50" s="15" t="inlineStr">
+        <is>
+          <t>Consulente indipendente</t>
+        </is>
+      </c>
+      <c r="D50" s="15" t="inlineStr">
+        <is>
+          <t>Cultura organizzativa</t>
+        </is>
+      </c>
+      <c r="E50" s="15" t="inlineStr">
+        <is>
+          <t>Peer</t>
+        </is>
+      </c>
+      <c r="F50" s="15" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G50" s="15" t="inlineStr">
+        <is>
+          <t>Evento/Network</t>
+        </is>
+      </c>
+      <c r="H50" s="15" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
+      <c r="I50" s="15" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J50" s="15" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
+      <c r="K50" s="15" t="inlineStr">
+        <is>
+          <t>Coffee da fissare</t>
+        </is>
+      </c>
+      <c r="L50" s="15" t="inlineStr">
+        <is>
+          <t>🟢 Peer — referral potenziale</t>
+        </is>
+      </c>
+      <c r="M50" s="15" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N50" s="15" t="inlineStr">
+        <is>
+          <t>No (peer)</t>
+        </is>
+      </c>
+      <c r="O50" s="15" t="inlineStr">
+        <is>
+          <t>25+ anni exp, ex-FC Barcelona. Diagnosi culturale + leadership dev. Suoi clienti (CEO con team disallineati) = potenziali ICP. Referral reciproco alto. PRIORITÀ ALTA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="15" customHeight="1" s="12">
+      <c r="A51" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="15" t="inlineStr">
+        <is>
+          <t>Michele D'Antino</t>
+        </is>
+      </c>
+      <c r="C51" s="15" t="inlineStr">
+        <is>
+          <t>Domina tu Discurso</t>
+        </is>
+      </c>
+      <c r="D51" s="15" t="inlineStr">
+        <is>
+          <t>Formazione/Sales</t>
+        </is>
+      </c>
+      <c r="E51" s="15" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="F51" s="15" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G51" s="15" t="inlineStr">
+        <is>
+          <t>Evento/Network</t>
+        </is>
+      </c>
+      <c r="H51" s="15" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J51" s="15" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
+      <c r="K51" s="15" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L51" s="15" t="inlineStr">
+        <is>
+          <t>Network generico</t>
+        </is>
+      </c>
+      <c r="M51" s="15" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N51" s="15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O51" s="15" t="inlineStr">
+        <is>
+          <t>Formatore oratoria per leader e team sales. Link indiretto a ICP. Bassa priorità.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="15" customHeight="1" s="12">
+      <c r="A52" s="15" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="15" t="inlineStr">
+        <is>
+          <t>Alexandra (Costantini) Demoures</t>
+        </is>
+      </c>
+      <c r="C52" s="15" t="inlineStr">
+        <is>
+          <t>C-Suites LAB</t>
+        </is>
+      </c>
+      <c r="D52" s="15" t="inlineStr">
+        <is>
+          <t>Fractional Executive Platform</t>
+        </is>
+      </c>
+      <c r="E52" s="15" t="inlineStr">
+        <is>
+          <t>Network strategico</t>
+        </is>
+      </c>
+      <c r="F52" s="15" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G52" s="15" t="inlineStr">
+        <is>
+          <t>Fayron 11 Feb</t>
+        </is>
+      </c>
+      <c r="H52" s="15" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="J52" s="15" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
+      <c r="K52" s="15" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L52" s="15" t="inlineStr">
+        <is>
+          <t>🟡 Form da compilare</t>
+        </is>
+      </c>
+      <c r="M52" s="15" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N52" s="15" t="inlineStr">
+        <is>
+          <t>No (piattaforma)</t>
+        </is>
+      </c>
+      <c r="O52" s="15" t="inlineStr">
+        <is>
+          <t>Founder C-Suites LAB — community/matchmaking per fractional CxO. Compilare form Notion per membership. ALTA PRIORITÀ: canale distribuzione potenziale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="15" customHeight="1" s="12">
+      <c r="A53" s="15" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="15" t="inlineStr">
+        <is>
+          <t>Giulia Martini</t>
+        </is>
+      </c>
+      <c r="C53" s="15" t="inlineStr">
+        <is>
+          <t>Genial Business</t>
+        </is>
+      </c>
+      <c r="D53" s="15" t="inlineStr">
+        <is>
+          <t>Formazione/PMI</t>
+        </is>
+      </c>
+      <c r="E53" s="15" t="inlineStr">
+        <is>
+          <t>Referral potenziale</t>
+        </is>
+      </c>
+      <c r="F53" s="15" t="inlineStr">
+        <is>
+          <t>Barcelona (da Bologna)</t>
+        </is>
+      </c>
+      <c r="G53" s="15" t="inlineStr">
+        <is>
+          <t>Via Federico Martinucci</t>
+        </is>
+      </c>
+      <c r="H53" s="15" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
+      <c r="I53" s="15" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="J53" s="15" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
+      <c r="K53" s="15" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="L53" s="15" t="inlineStr">
+        <is>
+          <t>🟡 Call oggi</t>
+        </is>
+      </c>
+      <c r="M53" s="15" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N53" s="15" t="inlineStr">
+        <is>
+          <t>⚠️ Da verificare</t>
+        </is>
+      </c>
+      <c r="O53" s="15" t="inlineStr">
+        <is>
+          <t>Founder Genial Business. Formazione 3gg per PMI owner. 300+ clienti, 15+ anni exp. Call esplorativa oggi — verificare se target PMI è nel range ICP (&gt;€500K, &gt;5 persone). Potenziale canale referral post-formazione.</t>
+        </is>
+      </c>
+    </row>
     <row r="54" ht="15" customHeight="1" s="12"/>
     <row r="55" ht="15" customHeight="1" s="12"/>
   </sheetData>
@@ -5095,7 +5541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -5650,7 +6096,7 @@
       </c>
       <c r="E12" s="15" t="inlineStr">
         <is>
-          <t>✅ Materiali fatti</t>
+          <t>Partecipato. ~18 partecipanti, profilo: coach, terapiste, formatrici comunicazione, micro-imprenditrici. Nessun ICP o referral rilevante. Evento non nel target ecosystem — non ripetere per validazione fractional COO.</t>
         </is>
       </c>
       <c r="F12" s="15" t="inlineStr">
@@ -5808,49 +6254,76 @@
       <c r="I15" s="15" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="11" t="inlineStr">
         <is>
           <t>2026-02-17 11:30</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="11" t="inlineStr">
         <is>
           <t>Interview Zartis</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="11" t="inlineStr">
         <is>
           <t>Job Interview</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="11" t="inlineStr">
         <is>
           <t>Job search</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="11" t="inlineStr">
         <is>
           <t>Da preparare</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
+      <c r="F16" s="11" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="11" t="inlineStr">
         <is>
           <t>Recruiter: gabriella.hutanu@zartis.com. Ricontattata dopo decline iniziale (€35K). Verificare se condizioni cambiate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="inlineStr">
+        <is>
+          <t>Tacones y Bambas</t>
+        </is>
+      </c>
+      <c r="C17" s="11" t="inlineStr">
+        <is>
+          <t>Networking professionale</t>
+        </is>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>Partecipato. Contatti da raccogliere.</t>
         </is>
       </c>
     </row>

--- a/TRACKER.xlsx
+++ b/TRACKER.xlsx
@@ -26,7 +26,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="11">
     <font>
       <name val="Calibri"/>
@@ -221,7 +223,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -320,6 +322,10 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -740,19 +746,17 @@
           <t>Sì</t>
         </is>
       </c>
-      <c r="K2" s="15" t="inlineStr">
-        <is>
-          <t>2026-02-16 09:00</t>
-        </is>
+      <c r="K2" s="34" t="n">
+        <v>46069</v>
       </c>
       <c r="L2" s="15" t="inlineStr">
         <is>
-          <t>✅ Confermato</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="M2" s="15" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N2" s="15" t="inlineStr">
@@ -762,7 +766,7 @@
       </c>
       <c r="O2" s="15" t="inlineStr">
         <is>
-          <t>Via Fayron.</t>
+          <t>Quasi disoccupato, fa networking professionale in health. NON ICP (no azienda attiva). Riconosce il problema nel mercato. Pricing insight: 'le aziende pagano quando capiscono che non devono assumerti FTE, ma devono prima capire il valore'. Commento su bias donna/italiana a BCN (3a volta in 2 mesi). Next step: ci risentiremo (vago).</t>
         </is>
       </c>
     </row>
@@ -4487,7 +4491,79 @@
         </is>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1" s="12"/>
+    <row r="54" ht="15" customHeight="1" s="12">
+      <c r="A54" s="11" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="11" t="inlineStr">
+        <is>
+          <t>Angelica Pellizzari</t>
+        </is>
+      </c>
+      <c r="C54" s="11" t="inlineStr">
+        <is>
+          <t>Immobiliare.it / Sesa / Treatwell / Euroansa</t>
+        </is>
+      </c>
+      <c r="D54" s="11" t="inlineStr">
+        <is>
+          <t>Corporate IT</t>
+        </is>
+      </c>
+      <c r="E54" s="11" t="inlineStr">
+        <is>
+          <t>Referral Source / Credibility Validator</t>
+        </is>
+      </c>
+      <c r="F54" s="11" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="G54" s="11" t="inlineStr">
+        <is>
+          <t>Ex-colleague (ProntoPro)</t>
+        </is>
+      </c>
+      <c r="H54" s="11" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
+      <c r="I54" s="35" t="n">
+        <v>46069</v>
+      </c>
+      <c r="J54" s="11" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
+      <c r="K54" s="11" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L54" s="11" t="inlineStr">
+        <is>
+          <t>🟡 In attesa call</t>
+        </is>
+      </c>
+      <c r="M54" s="11" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N54" s="11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O54" s="11" t="inlineStr">
+        <is>
+          <t>Ex-CFO ProntoPro, ha visto Sabrina durante crisi ops→finance. Now CFO/Board at Immobiliare.it, Sesa, Treatwell, past Facile.it, Euroansa. Heavy-hitter corporate IT. NON ICP ma potenziale referral verso founder EU e validatore di credibilità. Board-level network. Call da schedulare. UPDATE 16/2: Ha lasciato Immobiliare.it oggi (annuncio LinkedIn 3h fa). In transizione. Timing perfetto per call — ha bandwidth e mindset riflessivo. Approccio: diretta, no one-pager, chiedere dove vede il problema ops più acuto e referral verso founder.</t>
+        </is>
+      </c>
+    </row>
     <row r="55" ht="15" customHeight="1" s="12"/>
   </sheetData>
   <autoFilter ref="A1:O1"/>

--- a/TRACKER.xlsx
+++ b/TRACKER.xlsx
@@ -4579,7 +4579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -5600,6 +5600,73 @@
       <c r="M15" s="20" t="inlineStr">
         <is>
           <t>Alto filtro.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Job Application</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Grey Matter Recruitment (Mobile AdTech Ecosystem)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>COO</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>🟡 Da applicare (Easy Apply)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Highly competitive + bonus + share options (stimato €120-180K+)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Ops leadership high-growth B2B tech; delivery systems &amp; governance; cross-functional operating systems; data-literate; product-led thinking; reduce founder dependency</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>No AdTech/mobile advertising experience; product-led thinking (ops/finance-led, non product-led)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Easy Apply su LinkedIn</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>68 applicanti in 1 settimana. Recruiter: Joe Hutton (SaaS &amp; AdTech specialist). DSP/SSP/Mediation/Game Publisher. 200% revenue growth 2023, targeting X10. VC-backed.</t>
         </is>
       </c>
     </row>
